--- a/data/BARUIPUR_A1_ports.xlsx
+++ b/data/BARUIPUR_A1_ports.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Sfp Serial No</t>
   </si>
   <si>
-    <t>9308cd54-3b19-42c5-969d-726318c9a506</t>
+    <t>ccc2bafa-a50e-4d80-8c13-d8e79ec1f1ac</t>
   </si>
   <si>
     <t>f9fafe4e-cd78-4d47-ba73-80764c430a7e</t>
@@ -46,7 +46,97 @@
     <t>BARUIPUR A1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1b49c00c-734e-4dd9-8e0f-c0525edd9fa1</t>
+  </si>
+  <si>
+    <t>2Mb Interface</t>
+  </si>
+  <si>
+    <t>2mbps</t>
+  </si>
+  <si>
+    <t>5d60d51c-8f06-449a-8505-b5616a032cc6</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>4f2ff614-6719-4041-bbd3-f86bd47b2d1f</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>14888b49-2f7d-4dbd-93c2-b19dcafbcd8c</t>
+  </si>
+  <si>
+    <t>Fast Ethernet Port</t>
+  </si>
+  <si>
+    <t>1G</t>
+  </si>
+  <si>
+    <t>e0464a92-392d-4db9-9e9d-6d73e79c525e</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>98e5c04d-104a-4c78-aad3-4fd4608d6160</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4b86eede-d502-4368-85c1-8e68d9b50282</t>
+  </si>
+  <si>
+    <t>Gigabit Ethernet Port</t>
+  </si>
+  <si>
+    <t>84cda16f-30ff-43cb-9828-02c83a15e1b9</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>78ab354f-87ee-4055-9864-d8b3bcc030f4</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>93af36f5-3647-4a56-a0a5-57bcf158d1ef</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>ac950606-4896-45b4-b68f-47270a51a949</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>a275e2fb-100e-48ec-be6f-177b84ea93f1</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>b642ff81-b12b-4681-87cf-cc9fe138a631</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>8859aac6-7169-421e-b464-6581dfaaca8e</t>
+  </si>
+  <si>
+    <t>2.6</t>
   </si>
 </sst>
 </file>
@@ -65,19 +155,38 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -99,12 +208,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -446,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -458,8 +579,8 @@
     <col min="1" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,10 +623,280 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
